--- a/EC1-ECG_Analysis/ecg_oversampling/safetyArtist/ResNet results/ResNet_cc41.xlsx
+++ b/EC1-ECG_Analysis/ecg_oversampling/safetyArtist/ResNet results/ResNet_cc41.xlsx
@@ -248,9 +248,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -261,6 +258,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -565,7 +565,7 @@
   <dimension ref="A1:AN155"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AM6" sqref="AM6"/>
+      <selection activeCell="AL9" sqref="AL9:AN38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -783,23 +783,23 @@
         <v>3</v>
       </c>
       <c r="X2">
-        <f t="shared" ref="X2:X37" si="0">IF(C2=0, 1, 0)+IF(E2=0, 1, 0)+IF(G2=0, 1, 0)+IF(I2=0, 1, 0)+IF(K2=0, 1, 0)+IF(M2=0, 1, 0)+IF(O2=0, 1, 0)+IF(Q2=0, 1, 0)+IF(S2=0, 1, 0)+IF(U2=0, 1, 0)</f>
+        <f t="shared" ref="X2:X30" si="0">IF(C2=0, 1, 0)+IF(E2=0, 1, 0)+IF(G2=0, 1, 0)+IF(I2=0, 1, 0)+IF(K2=0, 1, 0)+IF(M2=0, 1, 0)+IF(O2=0, 1, 0)+IF(Q2=0, 1, 0)+IF(S2=0, 1, 0)+IF(U2=0, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="Y2">
-        <f t="shared" ref="Y2:Y37" si="1">IF(C2=1, 1, 0)+IF(E2=1, 1, 0)+IF(G2=1, 1, 0)+IF(I2=1, 1, 0)+IF(K2=1, 1, 0)+IF(M2=1, 1, 0)+IF(O2=1, 1, 0)+IF(Q2=1, 1, 0)+IF(S2=1, 1, 0)+IF(U2=1, 1, 0)</f>
+        <f t="shared" ref="Y2:Y30" si="1">IF(C2=1, 1, 0)+IF(E2=1, 1, 0)+IF(G2=1, 1, 0)+IF(I2=1, 1, 0)+IF(K2=1, 1, 0)+IF(M2=1, 1, 0)+IF(O2=1, 1, 0)+IF(Q2=1, 1, 0)+IF(S2=1, 1, 0)+IF(U2=1, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="Z2">
-        <f t="shared" ref="Z2:Z37" si="2">IF(C2=2, 1, 0)+IF(E2=2, 1, 0)+IF(G2=2, 1, 0)+IF(I2=2, 1, 0)+IF(K2=2, 1, 0)+IF(M2=2, 1, 0)+IF(O2=2, 1, 0)+IF(Q2=2, 1, 0)+IF(S2=2, 1, 0)+IF(U2=2, 1, 0)</f>
+        <f t="shared" ref="Z2:Z30" si="2">IF(C2=2, 1, 0)+IF(E2=2, 1, 0)+IF(G2=2, 1, 0)+IF(I2=2, 1, 0)+IF(K2=2, 1, 0)+IF(M2=2, 1, 0)+IF(O2=2, 1, 0)+IF(Q2=2, 1, 0)+IF(S2=2, 1, 0)+IF(U2=2, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AA2">
-        <f t="shared" ref="AA2:AA37" si="3">IF(C2=3, 1, 0)+IF(E2=3, 1, 0)+IF(G2=3, 1, 0)+IF(I2=3, 1, 0)+IF(K2=3, 1, 0)+IF(M2=3, 1, 0)+IF(O2=3, 1, 0)+IF(Q2=3, 1, 0)+IF(S2=3, 1, 0)+IF(U2=3, 1, 0)</f>
+        <f t="shared" ref="AA2:AA30" si="3">IF(C2=3, 1, 0)+IF(E2=3, 1, 0)+IF(G2=3, 1, 0)+IF(I2=3, 1, 0)+IF(K2=3, 1, 0)+IF(M2=3, 1, 0)+IF(O2=3, 1, 0)+IF(Q2=3, 1, 0)+IF(S2=3, 1, 0)+IF(U2=3, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AB2">
-        <f t="shared" ref="AB2:AB37" si="4">IF(C2=4, 1, 0)+IF(E2=4, 1, 0)+IF(G2=4, 1, 0)+IF(I2=4, 1, 0)+IF(K2=4, 1, 0)+IF(M2=4, 1, 0)+IF(O2=4, 1, 0)+IF(Q2=4, 1, 0)+IF(S2=4, 1, 0)+IF(U2=4, 1, 0)</f>
+        <f t="shared" ref="AB2:AB30" si="4">IF(C2=4, 1, 0)+IF(E2=4, 1, 0)+IF(G2=4, 1, 0)+IF(I2=4, 1, 0)+IF(K2=4, 1, 0)+IF(M2=4, 1, 0)+IF(O2=4, 1, 0)+IF(Q2=4, 1, 0)+IF(S2=4, 1, 0)+IF(U2=4, 1, 0)</f>
         <v>8</v>
       </c>
       <c r="AC2" t="b">
@@ -929,7 +929,7 @@
         <v>9</v>
       </c>
       <c r="AC3" t="b">
-        <f t="shared" ref="AC3:AG37" si="6">X3=MAX($X3:$AB3)</f>
+        <f t="shared" ref="AC3:AG30" si="6">X3=MAX($X3:$AB3)</f>
         <v>0</v>
       </c>
       <c r="AD3" t="b">
@@ -949,7 +949,7 @@
         <v>1</v>
       </c>
       <c r="AH3" s="4">
-        <f t="shared" ref="AH3:AH37" si="7">IF(X3=MAX($X3:$AB3), 1, 0) + IF(Y3=MAX($X3:$AB3), 1, 0) + IF(Z3=MAX($X3:$AB3), 1, 0) + IF(AA3=MAX($X3:$AB3), 1, 0) + IF(AB3=MAX($X3:$AB3), 1, 0)</f>
+        <f t="shared" ref="AH3:AH30" si="7">IF(X3=MAX($X3:$AB3), 1, 0) + IF(Y3=MAX($X3:$AB3), 1, 0) + IF(Z3=MAX($X3:$AB3), 1, 0) + IF(AA3=MAX($X3:$AB3), 1, 0) + IF(AB3=MAX($X3:$AB3), 1, 0)</f>
         <v>1</v>
       </c>
       <c r="AI3" s="4">
@@ -1704,11 +1704,11 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AL9" s="6" t="s">
+      <c r="AL9" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="AM9" s="6"/>
-      <c r="AN9" s="6"/>
+      <c r="AM9" s="10"/>
+      <c r="AN9" s="10"/>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -1829,13 +1829,13 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AL10" s="7" t="s">
+      <c r="AL10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AM10" s="7" t="s">
+      <c r="AM10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AN10" s="7" t="s">
+      <c r="AN10" s="6" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1965,8 +1965,8 @@
         <f>COUNTIFS(AJ:AJ, AL11)</f>
         <v>0</v>
       </c>
-      <c r="AN11" s="8">
-        <f>AM11/(SUM(AM$11:AM$37))</f>
+      <c r="AN11" s="7">
+        <f>AM11/(SUM(AM$11:AM$38))</f>
         <v>0</v>
       </c>
     </row>
@@ -2093,11 +2093,11 @@
         <v>1</v>
       </c>
       <c r="AM12" s="5">
-        <f t="shared" ref="AM12:AM37" si="10">COUNTIFS(AJ:AJ, AL12)</f>
+        <f t="shared" ref="AM12:AM38" si="10">COUNTIFS(AJ:AJ, AL12)</f>
         <v>135</v>
       </c>
-      <c r="AN12" s="8">
-        <f t="shared" ref="AN12:AN37" si="11">AM12/(SUM(AM$11:AM$37))</f>
+      <c r="AN12" s="7">
+        <f t="shared" ref="AN12:AN38" si="11">AM12/(SUM(AM$11:AM$38))</f>
         <v>0.87662337662337664</v>
       </c>
     </row>
@@ -2227,7 +2227,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN13" s="8">
+      <c r="AN13" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -2358,7 +2358,7 @@
         <f t="shared" si="10"/>
         <v>8</v>
       </c>
-      <c r="AN14" s="8">
+      <c r="AN14" s="7">
         <f t="shared" si="11"/>
         <v>5.1948051948051951E-2</v>
       </c>
@@ -2489,7 +2489,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN15" s="8">
+      <c r="AN15" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -2620,7 +2620,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN16" s="8">
+      <c r="AN16" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -2751,7 +2751,7 @@
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="AN17" s="8">
+      <c r="AN17" s="7">
         <f t="shared" si="11"/>
         <v>1.2987012987012988E-2</v>
       </c>
@@ -2882,7 +2882,7 @@
         <f t="shared" si="10"/>
         <v>6</v>
       </c>
-      <c r="AN18" s="8">
+      <c r="AN18" s="7">
         <f t="shared" si="11"/>
         <v>3.896103896103896E-2</v>
       </c>
@@ -3013,7 +3013,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN19" s="8">
+      <c r="AN19" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -3144,7 +3144,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN20" s="8">
+      <c r="AN20" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -3275,7 +3275,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN21" s="8">
+      <c r="AN21" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -3406,7 +3406,7 @@
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="AN22" s="8">
+      <c r="AN22" s="7">
         <f t="shared" si="11"/>
         <v>1.2987012987012988E-2</v>
       </c>
@@ -3537,7 +3537,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN23" s="8">
+      <c r="AN23" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -3668,7 +3668,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AN24" s="8">
+      <c r="AN24" s="7">
         <f t="shared" si="11"/>
         <v>6.4935064935064939E-3</v>
       </c>
@@ -3799,7 +3799,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN25" s="8">
+      <c r="AN25" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -3930,7 +3930,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN26" s="8">
+      <c r="AN26" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -4061,7 +4061,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN27" s="8">
+      <c r="AN27" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -4192,7 +4192,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN28" s="8">
+      <c r="AN28" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -4323,7 +4323,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN29" s="8">
+      <c r="AN29" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -4454,7 +4454,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN30" s="8">
+      <c r="AN30" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -4585,7 +4585,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN31" s="8">
+      <c r="AN31" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -4716,7 +4716,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN32" s="8">
+      <c r="AN32" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -4840,14 +4840,14 @@
         <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="AL33" s="9">
+      <c r="AL33" s="8">
         <v>22</v>
       </c>
-      <c r="AM33" s="9">
+      <c r="AM33" s="8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN33" s="8">
+      <c r="AN33" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -4971,14 +4971,14 @@
         <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="AL34" s="9">
+      <c r="AL34" s="8">
         <v>23</v>
       </c>
-      <c r="AM34" s="9">
+      <c r="AM34" s="8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN34" s="8">
+      <c r="AN34" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -5102,14 +5102,14 @@
         <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="AL35" s="9">
+      <c r="AL35" s="8">
         <v>24</v>
       </c>
-      <c r="AM35" s="9">
+      <c r="AM35" s="8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN35" s="8">
+      <c r="AN35" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -5233,14 +5233,14 @@
         <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="AL36" s="9">
+      <c r="AL36" s="8">
         <v>25</v>
       </c>
-      <c r="AM36" s="9">
+      <c r="AM36" s="8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN36" s="8">
+      <c r="AN36" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -5364,14 +5364,14 @@
         <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="AL37" s="9">
+      <c r="AL37" s="8">
         <v>26</v>
       </c>
-      <c r="AM37" s="9">
+      <c r="AM37" s="8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN37" s="8">
+      <c r="AN37" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -5495,6 +5495,17 @@
         <f t="shared" si="24"/>
         <v>1</v>
       </c>
+      <c r="AL38" s="8">
+        <v>27</v>
+      </c>
+      <c r="AM38" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN38" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A39">
@@ -8367,7 +8378,7 @@
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
-      <c r="AI62" s="10" t="s">
+      <c r="AI62" s="9" t="s">
         <v>41</v>
       </c>
       <c r="AJ62" s="4">
@@ -9445,7 +9456,7 @@
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
-      <c r="AI71" s="10" t="s">
+      <c r="AI71" s="9" t="s">
         <v>42</v>
       </c>
       <c r="AJ71" s="4">
@@ -9563,7 +9574,7 @@
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
-      <c r="AI72" s="10" t="s">
+      <c r="AI72" s="9" t="s">
         <v>42</v>
       </c>
       <c r="AJ72" s="4">
